--- a/block_game/doc/設計書.xlsx
+++ b/block_game/doc/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\centos\Share\shr_dir\block_game\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nishimura Takeru\Documents\Programing\Git\Practice\block_game\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB69FE-132D-4A45-ADC9-E094099F6DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE4116C-A067-4870-B32D-1BDBC4A0D6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7750" yWindow="530" windowWidth="13730" windowHeight="13270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,18 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>テスト追加</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2263,17 +2275,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="16384" width="3.08203125" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/block_game/doc/設計書.xlsx
+++ b/block_game/doc/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nishimura Takeru\Documents\Programing\Git\Practice\block_game\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\centos\Share\shr_dir\block_game\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE4116C-A067-4870-B32D-1BDBC4A0D6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB69FE-132D-4A45-ADC9-E094099F6DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7750" yWindow="530" windowWidth="13730" windowHeight="13270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>テスト追加</t>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2275,23 +2263,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="16384" width="3.08203125" style="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
